--- a/PO 2026.xlsx
+++ b/PO 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jajrc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5309C999-8E46-4CEC-80FC-A4D3CB781EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8245557C-04E8-443E-9B94-6B94B9073E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>JAJr CONSTRUCTION</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>DATE:</t>
+  </si>
+  <si>
+    <t>Order No.</t>
   </si>
 </sst>
 </file>
@@ -324,7 +327,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -785,11 +788,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -892,26 +921,155 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -923,135 +1081,18 @@
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1348,7 +1389,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1365,17 +1406,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A1" s="55"/>
-      <c r="B1" s="57" t="s">
+      <c r="A1" s="95"/>
+      <c r="B1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="58"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1397,15 +1438,15 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="63" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="50"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="45"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1427,15 +1468,15 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="63" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="50"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1457,15 +1498,15 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="45"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1490,10 +1531,10 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="3" t="s">
         <v>43</v>
       </c>
@@ -1519,17 +1560,17 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="5.25" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="74" t="s">
+      <c r="B6" s="89"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="76"/>
+      <c r="G6" s="93"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1551,13 +1592,13 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A7" s="69"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="77"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="94"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1582,12 +1623,14 @@
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="117" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="112"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1612,11 +1655,11 @@
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="8" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="116" t="s">
         <v>37</v>
       </c>
       <c r="G9" s="9"/>
@@ -1645,9 +1688,9 @@
         <v>9</v>
       </c>
       <c r="B10" s="83"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="5" t="s">
         <v>39</v>
       </c>
@@ -1682,8 +1725,8 @@
       <c r="C11" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
       <c r="F11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1713,9 +1756,9 @@
     <row r="12" spans="1:26" ht="28.5" customHeight="1">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
       <c r="H12" s="1"/>
@@ -1741,9 +1784,9 @@
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="82"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="20"/>
       <c r="G13" s="21"/>
       <c r="H13" s="1"/>
@@ -1769,9 +1812,9 @@
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="82"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="20"/>
       <c r="G14" s="21"/>
       <c r="H14" s="1"/>
@@ -1797,9 +1840,9 @@
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="82"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="20"/>
       <c r="G15" s="21"/>
       <c r="H15" s="1"/>
@@ -1825,9 +1868,9 @@
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="A16" s="18"/>
       <c r="B16" s="19"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="82"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="20"/>
       <c r="G16" s="21"/>
       <c r="H16" s="1"/>
@@ -1853,9 +1896,9 @@
     <row r="17" spans="1:26" ht="13.5" customHeight="1">
       <c r="A17" s="18"/>
       <c r="B17" s="19"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="82"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="20"/>
       <c r="G17" s="21"/>
       <c r="H17" s="1"/>
@@ -1881,9 +1924,9 @@
     <row r="18" spans="1:26" ht="13.5" customHeight="1">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="82"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="22"/>
       <c r="G18" s="21"/>
       <c r="H18" s="1"/>
@@ -1909,9 +1952,9 @@
     <row r="19" spans="1:26" ht="13.5" customHeight="1">
       <c r="A19" s="23"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="82"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="22"/>
       <c r="G19" s="21"/>
       <c r="H19" s="1"/>
@@ -1937,9 +1980,9 @@
     <row r="20" spans="1:26" ht="13.5" customHeight="1">
       <c r="A20" s="23"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="82"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="74"/>
       <c r="F20" s="22"/>
       <c r="G20" s="21"/>
       <c r="H20" s="1"/>
@@ -1965,9 +2008,9 @@
     <row r="21" spans="1:26" ht="13.5" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="82"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
       <c r="H21" s="1"/>
@@ -1993,9 +2036,9 @@
     <row r="22" spans="1:26" ht="13.5" customHeight="1">
       <c r="A22" s="23"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="82"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="74"/>
       <c r="F22" s="22"/>
       <c r="G22" s="21"/>
       <c r="H22" s="1"/>
@@ -2021,9 +2064,9 @@
     <row r="23" spans="1:26" ht="13.5" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="82"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
       <c r="F23" s="20"/>
       <c r="G23" s="21"/>
       <c r="H23" s="1"/>
@@ -2049,9 +2092,9 @@
     <row r="24" spans="1:26" ht="13.5" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="82"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="74"/>
       <c r="F24" s="20"/>
       <c r="G24" s="21"/>
       <c r="H24" s="1"/>
@@ -2077,9 +2120,9 @@
     <row r="25" spans="1:26" ht="13.5" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="82"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="74"/>
       <c r="F25" s="20"/>
       <c r="G25" s="21"/>
       <c r="H25" s="1"/>
@@ -2105,9 +2148,9 @@
     <row r="26" spans="1:26" ht="13.5" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="82"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="74"/>
       <c r="F26" s="20"/>
       <c r="G26" s="21"/>
       <c r="H26" s="1"/>
@@ -2133,9 +2176,9 @@
     <row r="27" spans="1:26" ht="13.5" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="82"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="74"/>
       <c r="F27" s="24"/>
       <c r="G27" s="21"/>
       <c r="H27" s="1"/>
@@ -2161,9 +2204,9 @@
     <row r="28" spans="1:26" ht="13.5" customHeight="1">
       <c r="A28" s="25"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="72"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="26"/>
       <c r="G28" s="27"/>
       <c r="H28" s="1"/>
@@ -2187,14 +2230,14 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="86"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="66"/>
       <c r="G29" s="28"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2217,15 +2260,15 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A30" s="96" t="s">
+      <c r="A30" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="58"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="69"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -2247,15 +2290,15 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A31" s="97" t="s">
+      <c r="A31" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="50"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="45"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2277,13 +2320,13 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A32" s="98"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="50"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="45"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2305,17 +2348,17 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A33" s="99" t="s">
+      <c r="A33" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="100" t="s">
+      <c r="B33" s="47"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="101"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="49"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2365,17 +2408,17 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="104" t="s">
+      <c r="B35" s="43"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="50"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="45"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2397,17 +2440,17 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A36" s="105" t="s">
+      <c r="A36" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="106" t="s">
+      <c r="B36" s="59"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="107"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="62"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -2429,15 +2472,15 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15" customHeight="1">
-      <c r="A37" s="108" t="s">
+      <c r="A37" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="101"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="49"/>
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
       <c r="J37" s="36"/>
@@ -2462,10 +2505,10 @@
       <c r="A38" s="37"/>
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="45"/>
       <c r="H38" s="36"/>
       <c r="I38" s="36"/>
       <c r="J38" s="38"/>
@@ -2488,12 +2531,12 @@
     </row>
     <row r="39" spans="1:26" ht="13.5" customHeight="1">
       <c r="A39" s="51"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="50"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="45"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
       <c r="J39" s="35"/>
@@ -2515,15 +2558,15 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A40" s="110" t="s">
+      <c r="A40" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="50"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="45"/>
       <c r="H40" s="39"/>
       <c r="I40" s="39"/>
       <c r="J40" s="39"/>
@@ -2545,15 +2588,15 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15" customHeight="1">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="50"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="45"/>
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
       <c r="J41" s="35"/>
@@ -2578,12 +2621,12 @@
       <c r="A42" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="50"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="45"/>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
@@ -2606,14 +2649,14 @@
     </row>
     <row r="43" spans="1:26" ht="13.5" customHeight="1">
       <c r="A43" s="51"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="47"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="43"/>
       <c r="J43" s="40"/>
       <c r="K43" s="35"/>
       <c r="L43" s="1"/>
@@ -2633,17 +2676,17 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15" customHeight="1">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="47"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="43"/>
       <c r="J44" s="35"/>
       <c r="K44" s="35"/>
       <c r="L44" s="1"/>
@@ -29432,55 +29475,6 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:G4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="D44:G44"/>
     <mergeCell ref="H44:I44"/>
@@ -29491,6 +29485,55 @@
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="H43:I43"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:G4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -29518,17 +29561,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A1" s="55"/>
-      <c r="B1" s="57" t="s">
+      <c r="A1" s="95"/>
+      <c r="B1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="58"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -29550,15 +29593,15 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="63" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="50"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="45"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -29580,15 +29623,15 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="63" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="50"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -29610,15 +29653,15 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="45"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -29643,12 +29686,12 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
@@ -29676,19 +29719,19 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="5.25" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="74" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="76">
+      <c r="G6" s="93">
         <v>46064</v>
       </c>
       <c r="H6" s="1"/>
@@ -29712,13 +29755,13 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A7" s="69"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="77"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="94"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -29743,14 +29786,14 @@
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="81"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -29775,12 +29818,12 @@
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="82"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="8" t="s">
         <v>37</v>
       </c>
@@ -29814,9 +29857,9 @@
       <c r="B10" s="83">
         <v>46069</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="5" t="s">
         <v>39</v>
       </c>
@@ -29853,8 +29896,8 @@
       <c r="C11" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
       <c r="F11" s="13" t="s">
         <v>13</v>
       </c>
@@ -29888,11 +29931,11 @@
       <c r="B12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="16">
         <v>750</v>
       </c>
@@ -29923,11 +29966,11 @@
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="82"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="20"/>
       <c r="G13" s="21"/>
       <c r="H13" s="1"/>
@@ -29953,9 +29996,9 @@
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="82"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="20"/>
       <c r="G14" s="21"/>
       <c r="H14" s="1"/>
@@ -29981,9 +30024,9 @@
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="82"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="20"/>
       <c r="G15" s="21">
         <f t="shared" ref="G15:G27" si="0">+F15*A15</f>
@@ -30012,9 +30055,9 @@
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="A16" s="18"/>
       <c r="B16" s="19"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="82"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="20"/>
       <c r="G16" s="21">
         <f t="shared" si="0"/>
@@ -30043,9 +30086,9 @@
     <row r="17" spans="1:26" ht="13.5" customHeight="1">
       <c r="A17" s="18"/>
       <c r="B17" s="19"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="82"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="20"/>
       <c r="G17" s="21">
         <f t="shared" si="0"/>
@@ -30074,9 +30117,9 @@
     <row r="18" spans="1:26" ht="13.5" customHeight="1">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="82"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="22"/>
       <c r="G18" s="21">
         <f t="shared" si="0"/>
@@ -30105,9 +30148,9 @@
     <row r="19" spans="1:26" ht="13.5" customHeight="1">
       <c r="A19" s="23"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="82"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="22"/>
       <c r="G19" s="21">
         <f t="shared" si="0"/>
@@ -30136,9 +30179,9 @@
     <row r="20" spans="1:26" ht="13.5" customHeight="1">
       <c r="A20" s="23"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="82"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="74"/>
       <c r="F20" s="22"/>
       <c r="G20" s="21">
         <f t="shared" si="0"/>
@@ -30167,9 +30210,9 @@
     <row r="21" spans="1:26" ht="13.5" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="82"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="20"/>
       <c r="G21" s="21">
         <f t="shared" si="0"/>
@@ -30198,9 +30241,9 @@
     <row r="22" spans="1:26" ht="13.5" customHeight="1">
       <c r="A22" s="23"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="82"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="74"/>
       <c r="F22" s="22"/>
       <c r="G22" s="21">
         <f t="shared" si="0"/>
@@ -30229,9 +30272,9 @@
     <row r="23" spans="1:26" ht="13.5" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="82"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
       <c r="F23" s="20"/>
       <c r="G23" s="21">
         <f t="shared" si="0"/>
@@ -30260,9 +30303,9 @@
     <row r="24" spans="1:26" ht="13.5" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="82"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="74"/>
       <c r="F24" s="20"/>
       <c r="G24" s="21">
         <f t="shared" si="0"/>
@@ -30291,9 +30334,9 @@
     <row r="25" spans="1:26" ht="13.5" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="82"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="74"/>
       <c r="F25" s="20"/>
       <c r="G25" s="21">
         <f t="shared" si="0"/>
@@ -30322,9 +30365,9 @@
     <row r="26" spans="1:26" ht="13.5" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="82"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="74"/>
       <c r="F26" s="20"/>
       <c r="G26" s="21">
         <f t="shared" si="0"/>
@@ -30353,9 +30396,9 @@
     <row r="27" spans="1:26" ht="13.5" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="82"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="74"/>
       <c r="F27" s="24"/>
       <c r="G27" s="21">
         <f t="shared" si="0"/>
@@ -30384,9 +30427,9 @@
     <row r="28" spans="1:26" ht="13.5" customHeight="1">
       <c r="A28" s="25"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="72"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="26"/>
       <c r="G28" s="27"/>
       <c r="H28" s="1"/>
@@ -30410,14 +30453,14 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="86"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="66"/>
       <c r="G29" s="28">
         <f>SUM(G12:G28)</f>
         <v>3000</v>
@@ -30443,15 +30486,15 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A30" s="96" t="s">
+      <c r="A30" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="58"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="69"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -30473,15 +30516,15 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A31" s="97" t="s">
+      <c r="A31" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="50"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="45"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -30503,13 +30546,13 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A32" s="98"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="50"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="45"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -30531,17 +30574,17 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A33" s="99" t="s">
+      <c r="A33" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="100" t="s">
+      <c r="B33" s="47"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="101"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="49"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -30591,17 +30634,17 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="104" t="s">
+      <c r="B35" s="43"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="50"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="45"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -30623,17 +30666,17 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A36" s="105" t="s">
+      <c r="A36" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="106" t="s">
+      <c r="B36" s="59"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="107"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="62"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -30655,15 +30698,15 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15" customHeight="1">
-      <c r="A37" s="108" t="s">
+      <c r="A37" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="101"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="49"/>
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
       <c r="J37" s="36"/>
@@ -30688,10 +30731,10 @@
       <c r="A38" s="37"/>
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="45"/>
       <c r="H38" s="36"/>
       <c r="I38" s="36"/>
       <c r="J38" s="38"/>
@@ -30714,12 +30757,12 @@
     </row>
     <row r="39" spans="1:26" ht="13.5" customHeight="1">
       <c r="A39" s="51"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="50"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="45"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
       <c r="J39" s="35"/>
@@ -30741,15 +30784,15 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A40" s="110" t="s">
+      <c r="A40" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="50"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="45"/>
       <c r="H40" s="39"/>
       <c r="I40" s="39"/>
       <c r="J40" s="39"/>
@@ -30771,15 +30814,15 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15" customHeight="1">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="50"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="45"/>
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
       <c r="J41" s="35"/>
@@ -30804,12 +30847,12 @@
       <c r="A42" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="50"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="45"/>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
@@ -30832,14 +30875,14 @@
     </row>
     <row r="43" spans="1:26" ht="13.5" customHeight="1">
       <c r="A43" s="51"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="47"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="43"/>
       <c r="J43" s="40"/>
       <c r="K43" s="35"/>
       <c r="L43" s="1"/>
@@ -30859,17 +30902,17 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15" customHeight="1">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="47"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="43"/>
       <c r="J44" s="35"/>
       <c r="K44" s="35"/>
       <c r="L44" s="1"/>
@@ -57658,37 +57701,18 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:G40"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="A1:A4"/>
@@ -57705,18 +57729,37 @@
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D35:G35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
